--- a/01_Input/00_CO Validation/Papua New Guinea - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Papua New Guinea - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhiraj.singh\OneDrive - United Nations Development Programme\PNG Offce\Project proposal\Japan ABG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{E3B8A25F-6575-43E6-9663-19523D705D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E28E008-207F-4B5B-AF4C-D34529A67AC6}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{E3B8A25F-6575-43E6-9663-19523D705D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F54592-FB54-43EA-88E6-298F1DC00F57}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>Project ID</t>
   </si>
@@ -143,43 +146,46 @@
     <t>Develop and deploy awareness campaigns for RE policy development for policy makers in the East and West Sepik Provinces</t>
   </si>
   <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Install solar power-generated electricity at selected public facilities such as Schools and Hospitals.</t>
+  </si>
+  <si>
+    <t>43000 total population will benefit, in the 6 solar installed site, including 4 schools and 2 health clinics covers 41 villages  and all these are direct benefit of  STREIT project 107296</t>
+  </si>
+  <si>
+    <t>Enhancing Green Transformation in the Pacific towards Net-Zero Emissions and Climate-Resilient Development for Peace </t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Micro Solar Farm with output of 1 MW added.</t>
+  </si>
+  <si>
+    <t>It is part of Regional Pacific Green Transformation Project.</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Policy and Regulatory Framework</t>
+  </si>
+  <si>
     <t>Health Services, Education Services</t>
   </si>
   <si>
-    <t>Install solar power-generated electricity at selected public facilities such as Schools and Hospitals.</t>
-  </si>
-  <si>
-    <t>Enhancing Green Transformation in the Pacific towards Net-Zero Emissions and Climate-Resilient Development for Peace </t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>Micro Solar Farm with output of 1 MW added.</t>
-  </si>
-  <si>
-    <t>It is part of Regional Pacific Green Transformation Project.</t>
-  </si>
-  <si>
-    <t>Japan</t>
+    <t>Energy (MW Added)</t>
   </si>
   <si>
     <t>1. Are the public facility solar installations the only direct beneficiary of project 107296? 
 2. Can you please estimate the total population reached by these centers, or the total installed capacity for the project?</t>
   </si>
   <si>
-    <t>43000 total population will benefit, in the 6 solar installed site, including 4 schools and 2 health clinics covers 41 villages  and all these are direct benefit of  STREIT project 107296</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Policy and Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Energy (MW Added)</t>
-  </si>
-  <si>
     <t>Policy and Regularity Framework</t>
   </si>
   <si>
@@ -196,9 +202,6 @@
   </si>
   <si>
     <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
   </si>
   <si>
     <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
@@ -407,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -476,30 +479,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -508,7 +487,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -566,53 +545,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -654,12 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +602,48 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC1153C-1F59-4006-9AEA-7FDDEDACBCF4}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -998,31 +971,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
@@ -1034,7 +1007,7 @@
       <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="20" t="s">
@@ -1052,262 +1025,265 @@
       <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="32"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:19" ht="60.75">
-      <c r="A2" s="53">
+      <c r="A2" s="37">
         <v>107296</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="40">
         <v>3954035</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="24">
         <v>0</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="25">
         <v>5</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="32"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" ht="45.75">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="37" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="24">
         <v>0</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="24">
         <v>2</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="J3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="32"/>
+      <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="45.75">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="37" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="26">
         <v>0</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="26">
         <v>4</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32" t="s">
+      <c r="J4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="32"/>
+      <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:19" ht="45.75">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="41" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="24">
         <v>0</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32" t="s">
+      <c r="J5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32" t="s">
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="32"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19" ht="45.75">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="38" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="29">
         <v>0</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="29">
         <v>43000</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32" t="s">
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32" t="s">
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="32"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:19" ht="48.75">
-      <c r="A7" s="43">
+      <c r="A7" s="29">
         <v>100396</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47">
+      <c r="B7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33">
         <v>3726000</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="43">
+      <c r="F7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="29">
         <v>0</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="29">
         <v>1</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="J7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-    </row>
-    <row r="10" spans="1:19" ht="76.5">
-      <c r="B10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="J2:J5"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R7" xr:uid="{294C791A-AC95-4FD2-ACFA-0C50B22FBBBC}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
@@ -1357,31 +1333,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
@@ -1394,9 +1370,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="N1" s="22"/>
       <c r="O1" s="20" t="s">
         <v>13</v>
       </c>
@@ -1412,256 +1388,256 @@
       <c r="S1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="32"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="33">
+      <c r="A2" s="41">
         <v>107296</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35">
+      <c r="C2" s="41"/>
+      <c r="D2" s="43">
         <v>3954035</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
+        <v>5</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="22"/>
+    </row>
+    <row r="3" spans="1:20" ht="45.75">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
+        <v>2</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="22"/>
+    </row>
+    <row r="4" spans="1:20" ht="45.75">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>4</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" spans="1:20" ht="45.75">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" ht="45.75">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="38">
+      <c r="F6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="29">
         <v>0</v>
       </c>
-      <c r="H2" s="39">
-        <v>5</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="s">
+      <c r="H6" s="29">
+        <v>43000</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="32" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="32"/>
-    </row>
-    <row r="3" spans="1:20" ht="45.75">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="38">
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" ht="47.25">
+      <c r="A7" s="29">
+        <v>100396</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33">
+        <v>3726000</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="29">
         <v>0</v>
       </c>
-      <c r="H3" s="38">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32" t="s">
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="32"/>
-    </row>
-    <row r="4" spans="1:20" ht="45.75">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="40">
-        <v>0</v>
-      </c>
-      <c r="H4" s="40">
-        <v>4</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="32"/>
-    </row>
-    <row r="5" spans="1:20" ht="45.75">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="32"/>
-    </row>
-    <row r="6" spans="1:20" ht="45.75">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="43">
-        <v>0</v>
-      </c>
-      <c r="H6" s="43">
-        <v>43000</v>
-      </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="32"/>
-    </row>
-    <row r="7" spans="1:20" ht="47.25">
-      <c r="A7" s="43">
-        <v>100396</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47">
-        <v>3726000</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43">
-        <v>1</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="76.5">
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1752,18 +1728,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="75">
-      <c r="A2" s="22">
+      <c r="A2" s="48">
         <v>107296</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25">
+      <c r="C2" s="45"/>
+      <c r="D2" s="47">
         <v>3954035</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>47</v>
+      <c r="E2" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>21</v>
@@ -1777,16 +1753,16 @@
       <c r="I2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="45" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45.75">
-      <c r="A3" s="21"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="13" t="s">
         <v>28</v>
       </c>
@@ -1799,14 +1775,14 @@
       <c r="I3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:10" ht="45.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="13" t="s">
         <v>30</v>
       </c>
@@ -1819,15 +1795,15 @@
       <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="45">
-      <c r="A5" s="21"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="47"/>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>33</v>
@@ -1841,15 +1817,15 @@
       <c r="I5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="21"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>36</v>
@@ -1866,7 +1842,7 @@
         <v>100396</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
@@ -1876,7 +1852,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -1885,18 +1861,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="76.5">
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1933,37 +1909,37 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="27" t="s">
-        <v>52</v>
+      <c r="A2" s="51" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="51"/>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="51"/>
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -1972,7 +1948,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
       <c r="B5" t="s">
@@ -1983,7 +1959,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="52"/>
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -1992,7 +1968,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -2001,7 +1977,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -2010,7 +1986,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -2019,7 +1995,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
@@ -2030,7 +2006,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="53"/>
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -2039,7 +2015,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="54" t="s">
         <v>74</v>
       </c>
       <c r="B12" t="s">
@@ -2050,7 +2026,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="54"/>
       <c r="B13" t="s">
         <v>77</v>
       </c>
@@ -2059,9 +2035,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="54"/>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -2101,6 +2077,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2158,7 +2143,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2407,23 +2392,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83091128-86D2-4590-AAF6-4D7BE39C4A7A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
--- a/01_Input/00_CO Validation/Papua New Guinea - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Papua New Guinea - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhiraj.singh\OneDrive - United Nations Development Programme\PNG Offce\Project proposal\Japan ABG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{E3B8A25F-6575-43E6-9663-19523D705D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F54592-FB54-43EA-88E6-298F1DC00F57}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{E3B8A25F-6575-43E6-9663-19523D705D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CBAE31-366F-4F16-869C-6A246BE07C2D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,49 +74,115 @@
     <t>Gender (% female)</t>
   </si>
   <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
+    <t>Support to increased production of and access to renewable energy systems in East and West Sepik Provinces (STREIT)</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00106668</t>
+  </si>
+  <si>
+    <t>Support provided at policy and strategy levels to the Government of PNG on inclusion of food and agriculture in renewable energy development</t>
+  </si>
+  <si>
+    <t>Develop policy notes for senior decision makers on renewable energy supply and demand among rural communities.</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Development of TOR for the Energy Sector Working Group. Energy Sector Working Group meetings conducted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approx. 39,000 ( 41 Villages ) total population,  will benefit from 2  health clinic solar installed site in East and West Sepik and  4000 Teachers and Children will benefit from 4 schools in east and west Sepik. </t>
+  </si>
+  <si>
+    <t>Support accreditation and certification system and capacity building</t>
+  </si>
+  <si>
+    <t>Conduct Gap Analysis of current legislations and regulations for RE licensing systems. Report outlining gaps in current licensing and accreditation arrangements and recommendations</t>
+  </si>
+  <si>
+    <t>Advocate, communicate and lobby for policy support and uptake of renewable energy initiatives</t>
+  </si>
+  <si>
+    <t>Develop and deploy awareness campaigns for RE policy development for policy makers in the East and West Sepik Provinces</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Install solar power-generated electricity at selected public facilities such as Schools and Hospitals.</t>
+  </si>
+  <si>
+    <t>43000 total population will benefit, in the 6 solar installed site, including 4 schools and 2 health clinics covers 41 villages  and all these are direct benefit of  STREIT project 107296</t>
+  </si>
+  <si>
+    <t>Enhancing Green Transformation in the Pacific towards Net-Zero Emissions and Climate-Resilient Development for Peace </t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Micro Solar Farm with output of 1 MW added.</t>
+  </si>
+  <si>
+    <t>It is part of Regional Pacific Green Transformation Project.</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>SEH Taxonomy</t>
-  </si>
-  <si>
-    <t>RISE Taxonomy</t>
-  </si>
-  <si>
-    <t>Flagship</t>
-  </si>
-  <si>
-    <t>Indirect Category</t>
-  </si>
-  <si>
-    <t>Indirect Taxonomy</t>
-  </si>
-  <si>
-    <t>Support to increased production of and access to renewable energy systems in East and West Sepik Provinces (STREIT)</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00106668</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Support provided at policy and strategy levels to the Government of PNG on inclusion of food and agriculture in renewable energy development</t>
-  </si>
-  <si>
-    <t>Develop policy notes for senior decision makers on renewable energy supply and demand among rural communities.</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Policy and Regulatory Framework</t>
   </si>
   <si>
     <t>Incentives and Support</t>
@@ -125,55 +191,7 @@
     <t>Renewable EnergyEnergy Infrastructure</t>
   </si>
   <si>
-    <t>Development of TOR for the Energy Sector Working Group. Energy Sector Working Group meetings conducted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approx. 39,000 ( 41 Villages ) total population,  will benefit from 2  health clinic solar installed site in East and West Sepik and  4000 Teachers and Children will benefit from 4 schools in east and west Sepik. </t>
-  </si>
-  <si>
-    <t>Support accreditation and certification system and capacity building</t>
-  </si>
-  <si>
-    <t>Conduct Gap Analysis of current legislations and regulations for RE licensing systems. Report outlining gaps in current licensing and accreditation arrangements and recommendations</t>
-  </si>
-  <si>
     <t>Legal Framework</t>
-  </si>
-  <si>
-    <t>Advocate, communicate and lobby for policy support and uptake of renewable energy initiatives</t>
-  </si>
-  <si>
-    <t>Develop and deploy awareness campaigns for RE policy development for policy makers in the East and West Sepik Provinces</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Install solar power-generated electricity at selected public facilities such as Schools and Hospitals.</t>
-  </si>
-  <si>
-    <t>43000 total population will benefit, in the 6 solar installed site, including 4 schools and 2 health clinics covers 41 villages  and all these are direct benefit of  STREIT project 107296</t>
-  </si>
-  <si>
-    <t>Enhancing Green Transformation in the Pacific towards Net-Zero Emissions and Climate-Resilient Development for Peace </t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>Micro Solar Farm with output of 1 MW added.</t>
-  </si>
-  <si>
-    <t>It is part of Regional Pacific Green Transformation Project.</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Policy and Regulatory Framework</t>
   </si>
   <si>
     <t>Health Services, Education Services</t>
@@ -195,52 +213,64 @@
     <t>Electricity Access, Health and Education Services</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -249,7 +279,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -264,13 +297,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -279,13 +309,16 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -301,12 +334,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,52 +404,29 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -479,24 +495,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -510,42 +557,42 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,50 +601,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +650,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -627,23 +696,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -950,355 +1016,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC1153C-1F59-4006-9AEA-7FDDEDACBCF4}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="W1" sqref="W1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="5"/>
-    <col min="13" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="3"/>
+    <col min="17" max="17" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:21" ht="19.5" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22"/>
-    </row>
-    <row r="2" spans="1:19" ht="60.75">
-      <c r="A2" s="37">
+      <c r="S1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="60.75">
+      <c r="A2" s="34">
         <v>107296</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="37">
+        <v>3954035</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="40">
-        <v>3954035</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="24">
+      <c r="F2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="22">
         <v>0</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="23">
         <v>5</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="J2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" ht="45.75">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="O2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="24">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="34">
+        <v>107296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="45.75">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="22">
         <v>0</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="22">
         <v>2</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="22" t="s">
+      <c r="I3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" ht="45.75">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="26">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="34"/>
+    </row>
+    <row r="4" spans="1:21" ht="45.75">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="24">
         <v>0</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>4</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="22" t="s">
+      <c r="I4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="22" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="22"/>
-    </row>
-    <row r="5" spans="1:19" ht="45.75">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="34"/>
+    </row>
+    <row r="5" spans="1:21" ht="45.75">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="22">
         <v>0</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="22"/>
-    </row>
-    <row r="6" spans="1:19" ht="45.75">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="34"/>
+    </row>
+    <row r="6" spans="1:21" ht="45.75">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="29">
+      <c r="F6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="27">
         <v>43000</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="22" t="s">
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="22"/>
-    </row>
-    <row r="7" spans="1:19" ht="48.75">
-      <c r="A7" s="29">
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="34"/>
+    </row>
+    <row r="7" spans="1:21" ht="48.75">
+      <c r="A7" s="27">
         <v>100396</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33">
+      <c r="B7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31">
         <v>3726000</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="29">
+      <c r="F7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="27">
         <v>0</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <v>1</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="B10" s="19"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11" s="8"/>
+      <c r="J7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="38"/>
+      <c r="U7" s="34"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R7" xr:uid="{294C791A-AC95-4FD2-ACFA-0C50B22FBBBC}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q7" xr:uid="{1AC75433-9F32-4017-B081-A147DF3B2EE1}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P7" xr:uid="{B0826E79-8CA9-4798-9995-3B73BB49DFD0}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7" xr:uid="{F7C101A8-E22F-4C73-9B97-616090F7EB7A}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7" xr:uid="{5A10AFAE-4876-4057-A18A-7FFE306F92AC}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7" xr:uid="{64B1C434-5063-42EB-BE8E-9135697C631B}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7" xr:uid="{9202B571-6965-41DA-999B-4392CD7569B8}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T7" xr:uid="{8253712E-7AC1-4FC5-B66A-79C7DE4FDE0A}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7" xr:uid="{E1D1F134-37A2-4D0E-A406-DBA04E4D78B5}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R7" xr:uid="{109F3931-8C9D-4EB6-9D83-6E90097434BF}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S7" xr:uid="{81BB7B7F-DB9E-44DC-B6F7-5E8B180CF334}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1306,6 +1399,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E342DAC3-B5C6-41E0-AC60-A72F0E691BF8}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1319,329 +1424,329 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="12" width="8.85546875" style="5"/>
-    <col min="13" max="13" width="55.7109375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="3"/>
+    <col min="13" max="13" width="55.7109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="20"/>
+    </row>
+    <row r="2" spans="1:20" ht="60.75">
+      <c r="A2" s="47">
+        <v>107296</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="49">
+        <v>3954035</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
+        <v>5</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="1:20" ht="45.75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>2</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" ht="45.75">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>4</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="20"/>
+    </row>
+    <row r="5" spans="1:20" ht="45.75">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="20"/>
+    </row>
+    <row r="6" spans="1:20" ht="45.75">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>43000</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="20"/>
+    </row>
+    <row r="7" spans="1:20" ht="47.25">
+      <c r="A7" s="27">
+        <v>100396</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31">
+        <v>3726000</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="22"/>
-    </row>
-    <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="41">
-        <v>107296</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="43">
-        <v>3954035</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="24">
-        <v>0</v>
-      </c>
-      <c r="H2" s="25">
-        <v>5</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="22" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="22"/>
-    </row>
-    <row r="3" spans="1:20" ht="45.75">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="23" t="s">
+      <c r="P7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
-        <v>2</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="22"/>
-    </row>
-    <row r="4" spans="1:20" ht="45.75">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <v>4</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" ht="45.75">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" ht="45.75">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="29">
-        <v>0</v>
-      </c>
-      <c r="H6" s="29">
-        <v>43000</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="22"/>
-    </row>
-    <row r="7" spans="1:20" ht="47.25">
-      <c r="A7" s="29">
-        <v>100396</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+    </row>
+    <row r="10" spans="1:20" ht="76.5">
+      <c r="B10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33">
-        <v>3726000</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
-        <v>1</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-    </row>
-    <row r="10" spans="1:20" ht="76.5">
-      <c r="B10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1684,15 +1789,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
@@ -1723,160 +1828,160 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75">
-      <c r="A2" s="48">
+      <c r="A2" s="54">
         <v>107296</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="47">
+      <c r="B2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="53">
         <v>3954035</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="E2" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>5</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>23</v>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45.75">
-      <c r="A3" s="45"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="A3" s="51"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="45"/>
+      <c r="I3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="45.75">
-      <c r="A4" s="45"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>4</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="45"/>
+      <c r="I4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" ht="45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="53"/>
       <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="12">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>10</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="45"/>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="45"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="A6" s="51"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>100396</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15">
+        <v>3726000</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="76.5">
+      <c r="B10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17">
-        <v>3726000</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="76.5">
-      <c r="B10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1894,198 +1999,200 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="51"/>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B1" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="51"/>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52"/>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="52"/>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="52"/>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="52"/>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="53"/>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="54"/>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="54"/>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
+      <c r="B20" s="58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2143,7 +2250,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2392,14 +2499,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83091128-86D2-4590-AAF6-4D7BE39C4A7A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83091128-86D2-4590-AAF6-4D7BE39C4A7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
--- a/01_Input/00_CO Validation/Papua New Guinea - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Papua New Guinea - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27424"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhiraj.singh\OneDrive - United Nations Development Programme\PNG Offce\Project proposal\Japan ABG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{E3B8A25F-6575-43E6-9663-19523D705D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CBAE31-366F-4F16-869C-6A246BE07C2D}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{E3B8A25F-6575-43E6-9663-19523D705D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7627D90-A8DF-449C-8763-31689FD60E2B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AB1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="2" spans="1:21" ht="60.75">
       <c r="A2" s="34">
-        <v>107296</v>
+        <v>106668</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>21</v>
@@ -2193,66 +2193,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Edward Vrkic</DisplayName>
-        <AccountId>1589</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dirk Wagener</DisplayName>
-        <AccountId>1999</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Akiko Yamamoto</DisplayName>
-        <AccountId>84</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dhiraj Singh</DisplayName>
-        <AccountId>1536</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Abdul Razzaq</DisplayName>
-        <AccountId>1938</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Milka Okiddy</DisplayName>
-        <AccountId>2006</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2277,6 +2228,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2356,6 +2308,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2500,22 +2457,71 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Edward Vrkic</DisplayName>
+        <AccountId>1589</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dirk Wagener</DisplayName>
+        <AccountId>1999</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Akiko Yamamoto</DisplayName>
+        <AccountId>84</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dhiraj Singh</DisplayName>
+        <AccountId>1536</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Abdul Razzaq</DisplayName>
+        <AccountId>1938</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Milka Okiddy</DisplayName>
+        <AccountId>2006</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83091128-86D2-4590-AAF6-4D7BE39C4A7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87ABFEB6-FE2F-4918-8D0F-739EEB1462D1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>